--- a/assets/form/IP/RAZR.xlsx
+++ b/assets/form/IP/RAZR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC972354-2752-4114-B407-F866D627967B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C136C4E-AE54-45D4-AB06-9DE306B7D2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57A105AC-0868-40D4-8F3A-4BAACBB4C473}"/>
+    <workbookView xWindow="22215" yWindow="3060" windowWidth="15375" windowHeight="7875" xr2:uid="{57A105AC-0868-40D4-8F3A-4BAACBB4C473}"/>
   </bookViews>
   <sheets>
     <sheet name="RAZR" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>(дата)</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Приложение 5</t>
+  </si>
+  <si>
+    <t>Специалист по НК</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>Филиал</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-FC19]dd\ mmmm\ yyyy&quot; г.&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +201,41 @@
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,11 +271,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,90 +303,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -360,6 +419,8 @@
       <sheetName val="Справочник дефектов ИП"/>
       <sheetName val="Свод"/>
       <sheetName val="ЗП ГОСТ Р 51164-98"/>
+      <sheetName val="Акт на приемку уложенного тр."/>
+      <sheetName val="Разрешение"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -573,6 +634,8 @@
         </row>
       </sheetData>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -880,8 +943,8 @@
   </sheetPr>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:K11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,144 +961,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="36" t="s">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="I9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26" t="s">
-        <v>3</v>
-      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="31"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1049,72 +1103,65 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="31"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1127,24 +1174,22 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1154,72 +1199,69 @@
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1232,91 +1274,92 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="37" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="38"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -1328,24 +1371,24 @@
       <c r="G29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1364,26 +1407,26 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1513,125 +1556,124 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="11" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="10" t="s">
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9" t="s">
+      <c r="I41" s="25"/>
+      <c r="J41" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="9"/>
+      <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8" t="s">
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8" t="s">
+      <c r="I42" s="27"/>
+      <c r="J42" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="8"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="10" t="s">
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="9" t="s">
+      <c r="I43" s="25"/>
+      <c r="J43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="26"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8" t="s">
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8" t="s">
+      <c r="I44" s="27"/>
+      <c r="J44" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="K44" s="8"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11" t="s">
+      <c r="A45" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="10" t="s">
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="9" t="s">
+      <c r="I45" s="25"/>
+      <c r="J45" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
+      <c r="I46" s="27"/>
+      <c r="J46" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="K46" s="8"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -2414,28 +2456,21 @@
       <c r="K106" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
+  <mergeCells count="36">
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="H41:I41"/>
@@ -2443,22 +2478,23 @@
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>